--- a/OnBoard/output/trust/bio/Bio_Trust_34.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_34.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q565"/>
+  <dimension ref="A1:Q551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27529,7 +27529,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SCOHRHO</t>
         </is>
       </c>
       <c r="F543">
@@ -27539,27 +27539,27 @@
         <v>1</v>
       </c>
       <c r="H543">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="I543">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L543">
         <v>0</v>
       </c>
-      <c r="P543" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>SR478</t>
         </is>
       </c>
     </row>
@@ -27586,7 +27586,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F544">
@@ -27596,10 +27596,10 @@
         <v>1</v>
       </c>
       <c r="H544">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="I544">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="J544" t="inlineStr">
         <is>
@@ -27608,15 +27608,15 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L544">
         <v>0</v>
       </c>
-      <c r="P544" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>SS7913</t>
         </is>
       </c>
     </row>
@@ -27643,7 +27643,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F545">
@@ -27653,22 +27653,27 @@
         <v>1</v>
       </c>
       <c r="H545">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I545">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L545">
         <v>0</v>
       </c>
-      <c r="P545" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>SS7914</t>
         </is>
       </c>
     </row>
@@ -27690,12 +27695,12 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F546">
@@ -27705,22 +27710,27 @@
         <v>1</v>
       </c>
       <c r="H546">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="I546">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L546">
         <v>0</v>
       </c>
-      <c r="P546" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>SS7915</t>
         </is>
       </c>
     </row>
@@ -27747,7 +27757,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F547">
@@ -27757,22 +27767,27 @@
         <v>1</v>
       </c>
       <c r="H547">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="I547">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L547">
         <v>0</v>
       </c>
-      <c r="P547" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>SS7916</t>
         </is>
       </c>
     </row>
@@ -27799,7 +27814,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F548">
@@ -27809,22 +27824,27 @@
         <v>1</v>
       </c>
       <c r="H548">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="I548">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L548">
         <v>0</v>
       </c>
-      <c r="P548" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>SS7917</t>
         </is>
       </c>
     </row>
@@ -27851,7 +27871,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F549">
@@ -27861,22 +27881,27 @@
         <v>1</v>
       </c>
       <c r="H549">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="I549">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="J549" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
       <c r="L549">
         <v>0</v>
       </c>
-      <c r="P549" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>SS7918</t>
         </is>
       </c>
     </row>
@@ -27903,7 +27928,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F550">
@@ -27913,10 +27938,10 @@
         <v>1</v>
       </c>
       <c r="H550">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I550">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J550" t="inlineStr">
         <is>
@@ -27925,11 +27950,6 @@
       </c>
       <c r="L550">
         <v>0</v>
-      </c>
-      <c r="P550" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="551">
@@ -27955,7 +27975,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F551">
@@ -27965,800 +27985,17 @@
         <v>1</v>
       </c>
       <c r="H551">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I551">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>FROSQ-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L551">
-        <v>0</v>
-      </c>
-      <c r="P551" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F552">
-        <v>1</v>
-      </c>
-      <c r="G552">
-        <v>1</v>
-      </c>
-      <c r="H552">
-        <v>33</v>
-      </c>
-      <c r="I552">
-        <v>57</v>
-      </c>
-      <c r="J552" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
-        </is>
-      </c>
-      <c r="L552">
-        <v>0</v>
-      </c>
-      <c r="P552" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F553">
-        <v>1</v>
-      </c>
-      <c r="G553">
-        <v>1</v>
-      </c>
-      <c r="H553">
-        <v>26</v>
-      </c>
-      <c r="I553">
-        <v>28</v>
-      </c>
-      <c r="J553" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
-        </is>
-      </c>
-      <c r="L553">
-        <v>0</v>
-      </c>
-      <c r="P553" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F554">
-        <v>1</v>
-      </c>
-      <c r="G554">
-        <v>1</v>
-      </c>
-      <c r="H554">
-        <v>32</v>
-      </c>
-      <c r="I554">
-        <v>52</v>
-      </c>
-      <c r="J554" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
-        </is>
-      </c>
-      <c r="L554">
-        <v>0</v>
-      </c>
-      <c r="P554" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F555">
-        <v>1</v>
-      </c>
-      <c r="G555">
-        <v>1</v>
-      </c>
-      <c r="H555">
-        <v>35</v>
-      </c>
-      <c r="I555">
-        <v>68</v>
-      </c>
-      <c r="J555" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>FROSQ-3</t>
-        </is>
-      </c>
-      <c r="L555">
-        <v>0</v>
-      </c>
-      <c r="P555" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F556">
-        <v>1</v>
-      </c>
-      <c r="G556">
-        <v>1</v>
-      </c>
-      <c r="H556">
-        <v>13</v>
-      </c>
-      <c r="I556">
-        <v>3</v>
-      </c>
-      <c r="J556" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L556">
-        <v>0</v>
-      </c>
-      <c r="P556" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>SCOHRHO</t>
-        </is>
-      </c>
-      <c r="F557">
-        <v>1</v>
-      </c>
-      <c r="G557">
-        <v>1</v>
-      </c>
-      <c r="H557">
-        <v>237</v>
-      </c>
-      <c r="I557">
-        <v>175</v>
-      </c>
-      <c r="J557" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L557">
-        <v>0</v>
-      </c>
-      <c r="N557" t="inlineStr">
-        <is>
-          <t>SR478</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F558">
-        <v>1</v>
-      </c>
-      <c r="G558">
-        <v>1</v>
-      </c>
-      <c r="H558">
-        <v>266</v>
-      </c>
-      <c r="I558">
-        <v>177</v>
-      </c>
-      <c r="J558" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L558">
-        <v>0</v>
-      </c>
-      <c r="N558" t="inlineStr">
-        <is>
-          <t>SS7913</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F559">
-        <v>1</v>
-      </c>
-      <c r="G559">
-        <v>1</v>
-      </c>
-      <c r="H559">
-        <v>259</v>
-      </c>
-      <c r="I559">
-        <v>151</v>
-      </c>
-      <c r="J559" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L559">
-        <v>0</v>
-      </c>
-      <c r="N559" t="inlineStr">
-        <is>
-          <t>SS7914</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F560">
-        <v>1</v>
-      </c>
-      <c r="G560">
-        <v>1</v>
-      </c>
-      <c r="H560">
-        <v>258</v>
-      </c>
-      <c r="I560">
-        <v>143</v>
-      </c>
-      <c r="J560" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L560">
-        <v>0</v>
-      </c>
-      <c r="N560" t="inlineStr">
-        <is>
-          <t>SS7915</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F561">
-        <v>1</v>
-      </c>
-      <c r="G561">
-        <v>1</v>
-      </c>
-      <c r="H561">
-        <v>258</v>
-      </c>
-      <c r="I561">
-        <v>178</v>
-      </c>
-      <c r="J561" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L561">
-        <v>0</v>
-      </c>
-      <c r="N561" t="inlineStr">
-        <is>
-          <t>SS7916</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F562">
-        <v>1</v>
-      </c>
-      <c r="G562">
-        <v>1</v>
-      </c>
-      <c r="H562">
-        <v>244</v>
-      </c>
-      <c r="I562">
-        <v>140</v>
-      </c>
-      <c r="J562" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L562">
-        <v>0</v>
-      </c>
-      <c r="N562" t="inlineStr">
-        <is>
-          <t>SS7917</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F563">
-        <v>1</v>
-      </c>
-      <c r="G563">
-        <v>1</v>
-      </c>
-      <c r="H563">
-        <v>235</v>
-      </c>
-      <c r="I563">
-        <v>122</v>
-      </c>
-      <c r="J563" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L563">
-        <v>0</v>
-      </c>
-      <c r="N563" t="inlineStr">
-        <is>
-          <t>SS7918</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F564">
-        <v>1</v>
-      </c>
-      <c r="G564">
-        <v>1</v>
-      </c>
-      <c r="H564">
-        <v>32</v>
-      </c>
-      <c r="I564">
-        <v>-1</v>
-      </c>
-      <c r="J564" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L564">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F565">
-        <v>1</v>
-      </c>
-      <c r="G565">
-        <v>1</v>
-      </c>
-      <c r="H565">
-        <v>29</v>
-      </c>
-      <c r="I565">
-        <v>-1</v>
-      </c>
-      <c r="J565" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L565">
         <v>0</v>
       </c>
     </row>
